--- a/docs/excel/TItem.xlsx
+++ b/docs/excel/TItem.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="28845" yWindow="195" windowWidth="27075" windowHeight="11955" tabRatio="204"/>
+    <workbookView xWindow="28845" yWindow="195" windowWidth="27075" windowHeight="12045" tabRatio="204"/>
   </bookViews>
   <sheets>
     <sheet name="TItem" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="227">
   <si>
     <t>string</t>
   </si>
@@ -11919,22 +11919,6 @@
   </si>
   <si>
     <t>免费次数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>钻石</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>钻石券</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>真实价格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RealPrice</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -12370,10 +12354,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G107"/>
+  <dimension ref="A1:F105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="B19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -12381,11 +12365,10 @@
     <col min="1" max="2" width="50" style="1" customWidth="1"/>
     <col min="3" max="3" width="81.59765625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.19921875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.8984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.296875" customWidth="1"/>
+    <col min="7" max="7" width="8.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>50</v>
       </c>
@@ -12404,11 +12387,8 @@
       <c r="F1" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>230</v>
-      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>56</v>
       </c>
@@ -12427,16 +12407,13 @@
       <c r="F2" t="s">
         <v>7</v>
       </c>
-      <c r="G2" t="s">
-        <v>7</v>
-      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -12455,521 +12432,432 @@
       <c r="F4" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="G4" s="6" t="s">
-        <v>229</v>
-      </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>10001</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>227</v>
+        <v>8001</v>
+      </c>
+      <c r="B5" t="s">
+        <v>128</v>
       </c>
       <c r="E5">
-        <v>10</v>
-      </c>
-      <c r="F5" s="5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>100</v>
+        <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>10002</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>228</v>
+        <v>7001</v>
+      </c>
+      <c r="B6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="D6">
+        <v>12</v>
       </c>
       <c r="E6">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F6" s="5">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>10</v>
+        <v>289</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>8001</v>
+        <v>7002</v>
       </c>
       <c r="B7" t="s">
-        <v>128</v>
+        <v>88</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D7">
+        <v>23</v>
       </c>
       <c r="E7">
-        <v>8</v>
-      </c>
-      <c r="G7">
-        <f t="shared" ref="G6:G69" si="0">F7*10</f>
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="F7" s="5">
+        <v>1299</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>7001</v>
+        <v>7003</v>
       </c>
       <c r="B8" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D8">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="E8">
         <v>7</v>
       </c>
       <c r="F8" s="5">
-        <v>289</v>
-      </c>
-      <c r="G8">
-        <f t="shared" si="0"/>
-        <v>2890</v>
+        <v>299</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>7002</v>
+        <v>7004</v>
       </c>
       <c r="B9" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D9">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="E9">
         <v>7</v>
       </c>
       <c r="F9" s="5">
-        <v>1299</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="0"/>
-        <v>12990</v>
+        <v>189</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>7003</v>
+        <v>7005</v>
       </c>
       <c r="B10" t="s">
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D10">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="E10">
         <v>7</v>
       </c>
       <c r="F10" s="5">
-        <v>299</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="0"/>
-        <v>2990</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>7004</v>
+        <v>7006</v>
       </c>
       <c r="B11" t="s">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D11">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="E11">
         <v>7</v>
       </c>
       <c r="F11" s="5">
-        <v>189</v>
-      </c>
-      <c r="G11">
-        <f t="shared" si="0"/>
-        <v>1890</v>
+        <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>7005</v>
+        <v>7007</v>
       </c>
       <c r="B12" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D12">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="E12">
         <v>7</v>
       </c>
       <c r="F12" s="5">
-        <v>10</v>
-      </c>
-      <c r="G12">
-        <f t="shared" si="0"/>
-        <v>100</v>
+        <v>68</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>7006</v>
+        <v>7008</v>
       </c>
       <c r="B13" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D13">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E13">
         <v>7</v>
       </c>
       <c r="F13" s="5">
-        <v>26</v>
-      </c>
-      <c r="G13">
-        <f t="shared" si="0"/>
-        <v>260</v>
+        <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>7007</v>
+        <v>7009</v>
       </c>
       <c r="B14" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D14">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="E14">
         <v>7</v>
       </c>
       <c r="F14" s="5">
-        <v>68</v>
-      </c>
-      <c r="G14">
-        <f t="shared" si="0"/>
-        <v>680</v>
+        <v>179</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>7008</v>
+        <v>7010</v>
       </c>
       <c r="B15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D15">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E15">
         <v>7</v>
       </c>
       <c r="F15" s="5">
-        <v>39</v>
-      </c>
-      <c r="G15">
-        <f t="shared" si="0"/>
-        <v>390</v>
+        <v>129</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>7009</v>
+        <v>7011</v>
       </c>
       <c r="B16" t="s">
-        <v>65</v>
+        <v>91</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D16">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="E16">
         <v>7</v>
       </c>
       <c r="F16" s="5">
-        <v>179</v>
-      </c>
-      <c r="G16">
-        <f t="shared" si="0"/>
-        <v>1790</v>
+        <v>389</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>7010</v>
+        <v>7012</v>
       </c>
       <c r="B17" t="s">
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D17">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="E17">
         <v>7</v>
       </c>
       <c r="F17" s="5">
-        <v>129</v>
-      </c>
-      <c r="G17">
-        <f t="shared" si="0"/>
-        <v>1290</v>
+        <v>199</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>7011</v>
+        <v>7013</v>
       </c>
       <c r="B18" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D18">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="E18">
         <v>7</v>
       </c>
       <c r="F18" s="5">
-        <v>389</v>
-      </c>
-      <c r="G18">
-        <f t="shared" si="0"/>
-        <v>3890</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>7012</v>
+        <v>7014</v>
       </c>
       <c r="B19" t="s">
-        <v>92</v>
+        <v>67</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D19">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E19">
         <v>7</v>
       </c>
       <c r="F19" s="5">
-        <v>199</v>
-      </c>
-      <c r="G19">
-        <f t="shared" si="0"/>
-        <v>1990</v>
+        <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>7013</v>
+        <v>7015</v>
       </c>
       <c r="B20" t="s">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D20">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E20">
         <v>7</v>
       </c>
       <c r="F20" s="5">
-        <v>79</v>
-      </c>
-      <c r="G20">
-        <f t="shared" si="0"/>
-        <v>790</v>
+        <v>158</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>7014</v>
+        <v>7016</v>
       </c>
       <c r="B21" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D21">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="E21">
         <v>7</v>
       </c>
       <c r="F21" s="5">
-        <v>39</v>
-      </c>
-      <c r="G21">
-        <f t="shared" si="0"/>
-        <v>390</v>
+        <v>58</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>7015</v>
+        <v>7017</v>
       </c>
       <c r="B22" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D22">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="E22">
         <v>7</v>
       </c>
       <c r="F22" s="5">
-        <v>158</v>
-      </c>
-      <c r="G22">
-        <f t="shared" si="0"/>
-        <v>1580</v>
+        <v>89</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>7016</v>
+        <v>7018</v>
       </c>
       <c r="B23" t="s">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D23">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E23">
         <v>7</v>
       </c>
       <c r="F23" s="5">
-        <v>58</v>
-      </c>
-      <c r="G23">
-        <f t="shared" si="0"/>
-        <v>580</v>
+        <v>59</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>7017</v>
+        <v>7019</v>
       </c>
       <c r="B24" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D24">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="E24">
         <v>7</v>
       </c>
       <c r="F24" s="5">
-        <v>89</v>
-      </c>
-      <c r="G24">
-        <f t="shared" si="0"/>
-        <v>890</v>
+        <v>129</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>7018</v>
+        <v>6001</v>
       </c>
       <c r="B25" t="s">
-        <v>95</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="D25">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="E25">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F25" s="5">
-        <v>59</v>
-      </c>
-      <c r="G25">
-        <f t="shared" si="0"/>
-        <v>590</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>7019</v>
-      </c>
-      <c r="B26" t="s">
-        <v>96</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="D26">
-        <v>90</v>
+        <v>6002</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>127</v>
       </c>
       <c r="E26">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F26" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>6003</v>
+      </c>
+      <c r="B27" s="8" t="s">
         <v>129</v>
-      </c>
-      <c r="G26">
-        <f t="shared" si="0"/>
-        <v>1290</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>6001</v>
-      </c>
-      <c r="B27" t="s">
-        <v>69</v>
       </c>
       <c r="E27">
         <v>6</v>
@@ -12977,35 +12865,27 @@
       <c r="F27" s="5">
         <v>0</v>
       </c>
-      <c r="G27">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>6002</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>127</v>
+        <v>6004</v>
+      </c>
+      <c r="B28" t="s">
+        <v>126</v>
       </c>
       <c r="E28">
         <v>6</v>
       </c>
-      <c r="F28" s="5">
+      <c r="F28">
         <v>0</v>
       </c>
-      <c r="G28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>6003</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>129</v>
+        <v>6005</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>226</v>
       </c>
       <c r="E29">
         <v>6</v>
@@ -13013,1866 +12893,1522 @@
       <c r="F29" s="5">
         <v>0</v>
       </c>
-      <c r="G29">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>6004</v>
+        <v>5001</v>
       </c>
       <c r="B30" t="s">
-        <v>126</v>
+        <v>70</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="D30">
+        <v>59</v>
       </c>
       <c r="E30">
-        <v>6</v>
-      </c>
-      <c r="F30">
-        <v>0</v>
-      </c>
-      <c r="G30">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="F30" s="5">
+        <v>100</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>6005</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>226</v>
+        <v>5002</v>
+      </c>
+      <c r="B31" t="s">
+        <v>22</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="D31">
+        <v>76</v>
       </c>
       <c r="E31">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F31" s="5">
-        <v>0</v>
-      </c>
-      <c r="G31">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>5001</v>
+        <v>5003</v>
       </c>
       <c r="B32" t="s">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D32">
-        <v>59</v>
+        <v>84</v>
       </c>
       <c r="E32">
         <v>5</v>
       </c>
       <c r="F32" s="5">
-        <v>100</v>
-      </c>
-      <c r="G32">
-        <f t="shared" si="0"/>
-        <v>1000</v>
+        <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>5002</v>
+        <v>5004</v>
       </c>
       <c r="B33" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D33">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="E33">
         <v>5</v>
       </c>
       <c r="F33" s="5">
-        <v>50</v>
-      </c>
-      <c r="G33">
-        <f t="shared" si="0"/>
-        <v>500</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>5003</v>
+        <v>4001</v>
       </c>
       <c r="B34" t="s">
-        <v>28</v>
+        <v>97</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D34">
-        <v>84</v>
+        <v>9</v>
       </c>
       <c r="E34">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F34" s="5">
-        <v>30</v>
-      </c>
-      <c r="G34">
-        <f t="shared" si="0"/>
-        <v>300</v>
+        <v>350</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>5004</v>
+        <v>4002</v>
       </c>
       <c r="B35" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D35">
-        <v>91</v>
+        <v>18</v>
       </c>
       <c r="E35">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F35" s="5">
-        <v>10</v>
-      </c>
-      <c r="G35">
-        <f t="shared" si="0"/>
-        <v>100</v>
+        <v>198</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>4001</v>
+        <v>4003</v>
       </c>
       <c r="B36" t="s">
-        <v>97</v>
+        <v>19</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D36">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="E36">
         <v>4</v>
       </c>
       <c r="F36" s="5">
-        <v>350</v>
-      </c>
-      <c r="G36">
-        <f t="shared" si="0"/>
-        <v>3500</v>
+        <v>119</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>4002</v>
+        <v>4004</v>
       </c>
       <c r="B37" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D37">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E37">
         <v>4</v>
       </c>
       <c r="F37" s="5">
-        <v>198</v>
-      </c>
-      <c r="G37">
-        <f t="shared" si="0"/>
-        <v>1980</v>
+        <v>49</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>4003</v>
+        <v>4005</v>
       </c>
       <c r="B38" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="D38">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E38">
         <v>4</v>
       </c>
       <c r="F38" s="5">
-        <v>119</v>
-      </c>
-      <c r="G38">
-        <f t="shared" si="0"/>
-        <v>1190</v>
+        <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>4004</v>
+        <v>4006</v>
       </c>
       <c r="B39" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D39">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E39">
         <v>4</v>
       </c>
       <c r="F39" s="5">
-        <v>49</v>
-      </c>
-      <c r="G39">
-        <f t="shared" si="0"/>
-        <v>490</v>
+        <v>34</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>4005</v>
+        <v>4007</v>
       </c>
       <c r="B40" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D40">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E40">
         <v>4</v>
       </c>
       <c r="F40" s="5">
-        <v>40</v>
-      </c>
-      <c r="G40">
-        <f t="shared" si="0"/>
-        <v>400</v>
+        <v>23</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>4006</v>
+        <v>4008</v>
       </c>
       <c r="B41" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D41">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E41">
         <v>4</v>
       </c>
       <c r="F41" s="5">
-        <v>34</v>
-      </c>
-      <c r="G41">
-        <f t="shared" si="0"/>
-        <v>340</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>4007</v>
+        <v>4009</v>
       </c>
       <c r="B42" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D42">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="E42">
         <v>4</v>
       </c>
       <c r="F42" s="5">
-        <v>23</v>
-      </c>
-      <c r="G42">
-        <f t="shared" si="0"/>
-        <v>230</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>4008</v>
+        <v>4010</v>
       </c>
       <c r="B43" t="s">
-        <v>31</v>
+        <v>98</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D43">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="E43">
         <v>4</v>
       </c>
       <c r="F43" s="5">
-        <v>20</v>
-      </c>
-      <c r="G43">
-        <f t="shared" si="0"/>
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>4009</v>
+        <v>4011</v>
       </c>
       <c r="B44" t="s">
-        <v>32</v>
+        <v>99</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D44">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="E44">
         <v>4</v>
       </c>
       <c r="F44" s="5">
-        <v>10</v>
-      </c>
-      <c r="G44">
-        <f t="shared" si="0"/>
-        <v>100</v>
+        <v>59</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>4010</v>
+        <v>4012</v>
       </c>
       <c r="B45" t="s">
-        <v>98</v>
+        <v>71</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D45">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="E45">
         <v>4</v>
       </c>
       <c r="F45" s="5">
-        <v>199</v>
-      </c>
-      <c r="G45">
-        <f t="shared" si="0"/>
-        <v>1990</v>
+        <v>348</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>4011</v>
+        <v>4013</v>
       </c>
       <c r="B46" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D46">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="E46">
         <v>4</v>
       </c>
       <c r="F46" s="5">
-        <v>59</v>
-      </c>
-      <c r="G46">
-        <f t="shared" si="0"/>
-        <v>590</v>
+        <v>99</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>4012</v>
+        <v>4014</v>
       </c>
       <c r="B47" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D47">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="E47">
         <v>4</v>
       </c>
       <c r="F47" s="5">
-        <v>348</v>
-      </c>
-      <c r="G47">
-        <f t="shared" si="0"/>
-        <v>3480</v>
+        <v>768</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>4013</v>
+        <v>4015</v>
       </c>
       <c r="B48" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D48">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E48">
         <v>4</v>
       </c>
       <c r="F48" s="5">
-        <v>99</v>
-      </c>
-      <c r="G48">
-        <f t="shared" si="0"/>
-        <v>990</v>
+        <v>129</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>4014</v>
+        <v>4016</v>
       </c>
       <c r="B49" t="s">
-        <v>72</v>
+        <v>102</v>
       </c>
       <c r="C49" s="7" t="s">
         <v>166</v>
       </c>
       <c r="D49">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E49">
         <v>4</v>
       </c>
       <c r="F49" s="5">
-        <v>768</v>
-      </c>
-      <c r="G49">
-        <f t="shared" si="0"/>
-        <v>7680</v>
+        <v>88</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>4015</v>
+        <v>4017</v>
       </c>
       <c r="B50" t="s">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D50">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E50">
         <v>4</v>
       </c>
       <c r="F50" s="5">
-        <v>129</v>
-      </c>
-      <c r="G50">
-        <f t="shared" si="0"/>
-        <v>1290</v>
+        <v>178</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>4016</v>
+        <v>4018</v>
       </c>
       <c r="B51" t="s">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D51">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="E51">
         <v>4</v>
       </c>
       <c r="F51" s="5">
-        <v>88</v>
-      </c>
-      <c r="G51">
-        <f t="shared" si="0"/>
-        <v>880</v>
+        <v>68</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>4017</v>
+        <v>4019</v>
       </c>
       <c r="B52" t="s">
+        <v>103</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="D52">
         <v>73</v>
-      </c>
-      <c r="C52" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="D52">
-        <v>64</v>
       </c>
       <c r="E52">
         <v>4</v>
       </c>
       <c r="F52" s="5">
-        <v>178</v>
-      </c>
-      <c r="G52">
-        <f t="shared" si="0"/>
-        <v>1780</v>
+        <v>1499</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>4018</v>
+        <v>4020</v>
       </c>
       <c r="B53" t="s">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D53">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="E53">
         <v>4</v>
       </c>
       <c r="F53" s="5">
-        <v>68</v>
-      </c>
-      <c r="G53">
-        <f t="shared" si="0"/>
-        <v>680</v>
+        <v>386</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>4019</v>
+        <v>4021</v>
       </c>
       <c r="B54" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D54">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="E54">
         <v>4</v>
       </c>
       <c r="F54" s="5">
-        <v>1499</v>
-      </c>
-      <c r="G54">
-        <f t="shared" si="0"/>
-        <v>14990</v>
+        <v>309</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>4020</v>
+        <v>4022</v>
       </c>
       <c r="B55" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D55">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="E55">
         <v>4</v>
       </c>
       <c r="F55" s="5">
-        <v>386</v>
-      </c>
-      <c r="G55">
-        <f t="shared" si="0"/>
-        <v>3860</v>
+        <v>100</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>4021</v>
+        <v>4023</v>
       </c>
       <c r="B56" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D56">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="E56">
         <v>4</v>
       </c>
       <c r="F56" s="5">
-        <v>309</v>
-      </c>
-      <c r="G56">
-        <f t="shared" si="0"/>
-        <v>3090</v>
+        <v>178</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>4022</v>
+        <v>4024</v>
       </c>
       <c r="B57" t="s">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D57">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="E57">
         <v>4</v>
       </c>
       <c r="F57" s="5">
-        <v>100</v>
-      </c>
-      <c r="G57">
-        <f t="shared" si="0"/>
-        <v>1000</v>
+        <v>298</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>4023</v>
+        <v>4025</v>
       </c>
       <c r="B58" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D58">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="E58">
         <v>4</v>
       </c>
       <c r="F58" s="5">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>4026</v>
+      </c>
+      <c r="B59" t="s">
+        <v>77</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="D59">
+        <v>94</v>
+      </c>
+      <c r="E59">
+        <v>9</v>
+      </c>
+      <c r="F59" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>4027</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C60" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="G58">
-        <f t="shared" si="0"/>
-        <v>1780</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A59">
-        <v>4024</v>
-      </c>
-      <c r="B59" t="s">
-        <v>75</v>
-      </c>
-      <c r="C59" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="D59">
-        <v>88</v>
-      </c>
-      <c r="E59">
-        <v>4</v>
-      </c>
-      <c r="F59" s="5">
-        <v>298</v>
-      </c>
-      <c r="G59">
-        <f t="shared" si="0"/>
-        <v>2980</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A60">
-        <v>4025</v>
-      </c>
-      <c r="B60" t="s">
-        <v>76</v>
-      </c>
-      <c r="C60" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="D60">
-        <v>92</v>
       </c>
       <c r="E60">
         <v>4</v>
       </c>
       <c r="F60" s="5">
-        <v>298</v>
-      </c>
-      <c r="G60">
-        <f t="shared" si="0"/>
-        <v>2980</v>
+        <v>11</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>4026</v>
+        <v>3001</v>
       </c>
       <c r="B61" t="s">
-        <v>77</v>
+        <v>10</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D61">
-        <v>94</v>
+        <v>4</v>
       </c>
       <c r="E61">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F61" s="5">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>3002</v>
+      </c>
+      <c r="B62" t="s">
+        <v>13</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="D62">
+        <v>13</v>
+      </c>
+      <c r="E62">
         <v>3</v>
       </c>
-      <c r="G61">
-        <f t="shared" si="0"/>
-        <v>30</v>
+      <c r="F62" s="5">
+        <v>315</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A62">
-        <v>4027</v>
-      </c>
-      <c r="B62" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="C62" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="E62">
-        <v>4</v>
-      </c>
-      <c r="F62" s="5">
-        <v>11</v>
-      </c>
-      <c r="G62">
-        <f t="shared" si="0"/>
-        <v>110</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>3001</v>
+        <v>3003</v>
       </c>
       <c r="B63" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D63">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="E63">
         <v>3</v>
       </c>
       <c r="F63" s="5">
-        <v>898</v>
-      </c>
-      <c r="G63">
-        <f t="shared" si="0"/>
-        <v>8980</v>
+        <v>283</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>3002</v>
+        <v>3004</v>
       </c>
       <c r="B64" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D64">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E64">
         <v>3</v>
       </c>
       <c r="F64" s="5">
-        <v>315</v>
-      </c>
-      <c r="G64">
-        <f t="shared" si="0"/>
-        <v>3150</v>
+        <v>78</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>3003</v>
+        <v>3005</v>
       </c>
       <c r="B65" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D65">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E65">
         <v>3</v>
       </c>
       <c r="F65" s="5">
-        <v>283</v>
-      </c>
-      <c r="G65">
-        <f t="shared" si="0"/>
-        <v>2830</v>
+        <v>59</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66">
-        <v>3004</v>
+        <v>3006</v>
       </c>
       <c r="B66" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D66">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="E66">
         <v>3</v>
       </c>
       <c r="F66" s="5">
-        <v>78</v>
-      </c>
-      <c r="G66">
-        <f t="shared" si="0"/>
-        <v>780</v>
+        <v>39</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67">
-        <v>3005</v>
+        <v>3007</v>
       </c>
       <c r="B67" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D67">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="E67">
         <v>3</v>
       </c>
       <c r="F67" s="5">
-        <v>59</v>
-      </c>
-      <c r="G67">
-        <f t="shared" si="0"/>
-        <v>590</v>
+        <v>26</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68">
-        <v>3006</v>
+        <v>3008</v>
       </c>
       <c r="B68" t="s">
-        <v>26</v>
+        <v>108</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D68">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="E68">
         <v>3</v>
       </c>
       <c r="F68" s="5">
-        <v>39</v>
-      </c>
-      <c r="G68">
-        <f t="shared" si="0"/>
-        <v>390</v>
+        <v>248</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69">
-        <v>3007</v>
+        <v>3009</v>
       </c>
       <c r="B69" t="s">
-        <v>29</v>
+        <v>109</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D69">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E69">
         <v>3</v>
       </c>
       <c r="F69" s="5">
-        <v>26</v>
-      </c>
-      <c r="G69">
-        <f t="shared" si="0"/>
-        <v>260</v>
+        <v>189</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70">
-        <v>3008</v>
+        <v>3010</v>
       </c>
       <c r="B70" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D70">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="E70">
         <v>3</v>
       </c>
       <c r="F70" s="5">
-        <v>248</v>
-      </c>
-      <c r="G70">
-        <f t="shared" ref="G70:G107" si="1">F70*10</f>
-        <v>2480</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71">
-        <v>3009</v>
+        <v>3011</v>
       </c>
       <c r="B71" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D71">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="E71">
         <v>3</v>
       </c>
       <c r="F71" s="5">
-        <v>189</v>
-      </c>
-      <c r="G71">
-        <f t="shared" si="1"/>
-        <v>1890</v>
+        <v>1199</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72">
-        <v>3010</v>
+        <v>3012</v>
       </c>
       <c r="B72" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D72">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="E72">
         <v>3</v>
       </c>
       <c r="F72" s="5">
-        <v>80</v>
-      </c>
-      <c r="G72">
-        <f t="shared" si="1"/>
-        <v>800</v>
+        <v>129</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73">
-        <v>3011</v>
+        <v>3013</v>
       </c>
       <c r="B73" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D73">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="E73">
         <v>3</v>
       </c>
       <c r="F73" s="5">
-        <v>1199</v>
-      </c>
-      <c r="G73">
-        <f t="shared" si="1"/>
-        <v>11990</v>
+        <v>199</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74">
-        <v>3012</v>
+        <v>3014</v>
       </c>
       <c r="B74" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D74">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="E74">
         <v>3</v>
       </c>
       <c r="F74" s="5">
-        <v>129</v>
-      </c>
-      <c r="G74">
-        <f t="shared" si="1"/>
-        <v>1290</v>
+        <v>99</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75">
-        <v>3013</v>
+        <v>3015</v>
       </c>
       <c r="B75" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D75">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="E75">
         <v>3</v>
       </c>
       <c r="F75" s="5">
-        <v>199</v>
-      </c>
-      <c r="G75">
-        <f t="shared" si="1"/>
-        <v>1990</v>
+        <v>78</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76">
-        <v>3014</v>
+        <v>3016</v>
       </c>
       <c r="B76" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D76">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="E76">
         <v>3</v>
       </c>
       <c r="F76" s="5">
-        <v>99</v>
-      </c>
-      <c r="G76">
-        <f t="shared" si="1"/>
-        <v>990</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77">
-        <v>3015</v>
+        <v>3017</v>
       </c>
       <c r="B77" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D77">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E77">
         <v>3</v>
       </c>
       <c r="F77" s="5">
-        <v>78</v>
-      </c>
-      <c r="G77">
-        <f t="shared" si="1"/>
-        <v>780</v>
+        <v>2893</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78">
-        <v>3016</v>
+        <v>3018</v>
       </c>
       <c r="B78" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D78">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E78">
         <v>3</v>
       </c>
       <c r="F78" s="5">
-        <v>79</v>
-      </c>
-      <c r="G78">
-        <f t="shared" si="1"/>
-        <v>790</v>
+        <v>840</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79">
-        <v>3017</v>
+        <v>3019</v>
       </c>
       <c r="B79" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D79">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="E79">
         <v>3</v>
       </c>
       <c r="F79" s="5">
-        <v>2893</v>
-      </c>
-      <c r="G79">
-        <f t="shared" si="1"/>
-        <v>28930</v>
+        <v>149</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80">
-        <v>3018</v>
+        <v>3020</v>
       </c>
       <c r="B80" t="s">
-        <v>118</v>
+        <v>78</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D80">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="E80">
         <v>3</v>
       </c>
       <c r="F80" s="5">
-        <v>840</v>
-      </c>
-      <c r="G80">
-        <f t="shared" si="1"/>
-        <v>8400</v>
+        <v>529</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81">
-        <v>3019</v>
+        <v>3021</v>
       </c>
       <c r="B81" t="s">
-        <v>119</v>
+        <v>79</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D81">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="E81">
         <v>3</v>
       </c>
       <c r="F81" s="5">
-        <v>149</v>
-      </c>
-      <c r="G81">
-        <f t="shared" si="1"/>
-        <v>1490</v>
+        <v>129</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82">
-        <v>3020</v>
+        <v>2001</v>
       </c>
       <c r="B82" t="s">
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D82">
-        <v>82</v>
+        <v>15</v>
       </c>
       <c r="E82">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F82" s="5">
-        <v>529</v>
-      </c>
-      <c r="G82">
-        <f t="shared" si="1"/>
-        <v>5290</v>
+        <v>1000</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83">
-        <v>3021</v>
+        <v>2002</v>
       </c>
       <c r="B83" t="s">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D83">
-        <v>86</v>
+        <v>22</v>
       </c>
       <c r="E83">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F83" s="5">
-        <v>129</v>
-      </c>
-      <c r="G83">
-        <f t="shared" si="1"/>
-        <v>1290</v>
+        <v>500</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84">
-        <v>2001</v>
+        <v>2003</v>
       </c>
       <c r="B84" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D84">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="E84">
         <v>2</v>
       </c>
       <c r="F84" s="5">
-        <v>1000</v>
-      </c>
-      <c r="G84">
-        <f t="shared" si="1"/>
-        <v>10000</v>
+        <v>300</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85">
-        <v>2002</v>
+        <v>2004</v>
       </c>
       <c r="B85" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D85">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="E85">
         <v>2</v>
       </c>
       <c r="F85" s="5">
-        <v>500</v>
-      </c>
-      <c r="G85">
-        <f t="shared" si="1"/>
-        <v>5000</v>
+        <v>200</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86">
-        <v>2003</v>
+        <v>2005</v>
       </c>
       <c r="B86" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D86">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="E86">
         <v>2</v>
       </c>
       <c r="F86" s="5">
-        <v>300</v>
-      </c>
-      <c r="G86">
-        <f t="shared" si="1"/>
-        <v>3000</v>
+        <v>190</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87">
-        <v>2004</v>
+        <v>2006</v>
       </c>
       <c r="B87" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D87">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="E87">
         <v>2</v>
       </c>
       <c r="F87" s="5">
-        <v>200</v>
-      </c>
-      <c r="G87">
-        <f t="shared" si="1"/>
-        <v>2000</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88">
-        <v>2005</v>
+        <v>2007</v>
       </c>
       <c r="B88" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D88">
-        <v>43</v>
+        <v>89</v>
       </c>
       <c r="E88">
         <v>2</v>
       </c>
       <c r="F88" s="5">
-        <v>190</v>
-      </c>
-      <c r="G88">
-        <f t="shared" si="1"/>
-        <v>1900</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="B89" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D89">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="E89">
         <v>2</v>
       </c>
       <c r="F89" s="5">
-        <v>50</v>
-      </c>
-      <c r="G89">
-        <f t="shared" si="1"/>
-        <v>500</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90">
-        <v>2007</v>
+        <v>1001</v>
       </c>
       <c r="B90" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D90">
-        <v>89</v>
+        <v>1</v>
       </c>
       <c r="E90">
+        <v>1</v>
+      </c>
+      <c r="F90" s="5">
+        <v>8488</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>1002</v>
+      </c>
+      <c r="B91" t="s">
+        <v>8</v>
+      </c>
+      <c r="C91" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="D91">
         <v>2</v>
       </c>
-      <c r="F90" s="5">
-        <v>20</v>
-      </c>
-      <c r="G90">
-        <f t="shared" si="1"/>
-        <v>200</v>
+      <c r="E91">
+        <v>1</v>
+      </c>
+      <c r="F91" s="5">
+        <v>1960</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A91">
-        <v>2008</v>
-      </c>
-      <c r="B91" t="s">
-        <v>60</v>
-      </c>
-      <c r="C91" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="D91">
-        <v>93</v>
-      </c>
-      <c r="E91">
-        <v>2</v>
-      </c>
-      <c r="F91" s="5">
-        <v>10</v>
-      </c>
-      <c r="G91">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="B92" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D92">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E92">
         <v>1</v>
       </c>
       <c r="F92" s="5">
-        <v>8488</v>
-      </c>
-      <c r="G92">
-        <f t="shared" si="1"/>
-        <v>84880</v>
+        <v>1399</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93">
-        <v>1002</v>
+        <v>1004</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D93">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E93">
         <v>1</v>
       </c>
       <c r="F93" s="5">
-        <v>1960</v>
-      </c>
-      <c r="G93">
-        <f t="shared" si="1"/>
-        <v>19600</v>
+        <v>529</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94">
-        <v>1003</v>
+        <v>1005</v>
       </c>
       <c r="B94" t="s">
-        <v>58</v>
+        <v>120</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D94">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E94">
         <v>1</v>
       </c>
       <c r="F94" s="5">
-        <v>1399</v>
-      </c>
-      <c r="G94">
-        <f t="shared" si="1"/>
-        <v>13990</v>
+        <v>658</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="B95" t="s">
-        <v>11</v>
+        <v>121</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D95">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E95">
         <v>1</v>
       </c>
       <c r="F95" s="5">
-        <v>529</v>
-      </c>
-      <c r="G95">
-        <f t="shared" si="1"/>
-        <v>5290</v>
+        <v>2300</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96">
-        <v>1005</v>
+        <v>1007</v>
       </c>
       <c r="B96" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D96">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E96">
         <v>1</v>
       </c>
       <c r="F96" s="5">
-        <v>658</v>
-      </c>
-      <c r="G96">
-        <f t="shared" si="1"/>
-        <v>6580</v>
+        <v>3099</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97">
-        <v>1006</v>
+        <v>1008</v>
       </c>
       <c r="B97" t="s">
-        <v>121</v>
+        <v>80</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D97">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E97">
         <v>1</v>
       </c>
       <c r="F97" s="5">
-        <v>2300</v>
-      </c>
-      <c r="G97">
-        <f t="shared" si="1"/>
-        <v>23000</v>
+        <v>1998</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98">
-        <v>1007</v>
+        <v>1009</v>
       </c>
       <c r="B98" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D98">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E98">
         <v>1</v>
       </c>
       <c r="F98" s="5">
-        <v>3099</v>
-      </c>
-      <c r="G98">
-        <f t="shared" si="1"/>
-        <v>30990</v>
+        <v>3498</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99">
-        <v>1008</v>
+        <v>1010</v>
       </c>
       <c r="B99" t="s">
-        <v>80</v>
+        <v>124</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D99">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E99">
         <v>1</v>
       </c>
       <c r="F99" s="5">
-        <v>1998</v>
-      </c>
-      <c r="G99">
-        <f t="shared" si="1"/>
-        <v>19980</v>
+        <v>1199</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100">
-        <v>1009</v>
+        <v>1011</v>
       </c>
       <c r="B100" t="s">
-        <v>123</v>
+        <v>81</v>
       </c>
       <c r="C100" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D100">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E100">
         <v>1</v>
       </c>
       <c r="F100" s="5">
-        <v>3498</v>
-      </c>
-      <c r="G100">
-        <f t="shared" si="1"/>
-        <v>34980</v>
+        <v>2699</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101">
-        <v>1010</v>
+        <v>1012</v>
       </c>
       <c r="B101" t="s">
-        <v>124</v>
+        <v>82</v>
       </c>
       <c r="C101" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D101">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E101">
         <v>1</v>
       </c>
       <c r="F101" s="5">
-        <v>1199</v>
-      </c>
-      <c r="G101">
-        <f t="shared" si="1"/>
-        <v>11990</v>
+        <v>199</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102">
-        <v>1011</v>
-      </c>
-      <c r="B102" t="s">
-        <v>81</v>
+        <v>1013</v>
+      </c>
+      <c r="B102" s="6" t="s">
+        <v>225</v>
       </c>
       <c r="C102" s="7" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="D102">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E102">
         <v>1</v>
       </c>
       <c r="F102" s="5">
-        <v>2699</v>
-      </c>
-      <c r="G102">
-        <f t="shared" si="1"/>
-        <v>26990</v>
+        <v>139</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103">
-        <v>1012</v>
+        <v>1014</v>
       </c>
       <c r="B103" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C103" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D103">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="E103">
         <v>1</v>
       </c>
       <c r="F103" s="5">
-        <v>199</v>
-      </c>
-      <c r="G103">
-        <f t="shared" si="1"/>
-        <v>1990</v>
+        <v>1399</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104">
-        <v>1013</v>
-      </c>
-      <c r="B104" s="6" t="s">
-        <v>225</v>
+        <v>1015</v>
+      </c>
+      <c r="B104" t="s">
+        <v>84</v>
       </c>
       <c r="C104" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D104">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="E104">
         <v>1</v>
       </c>
       <c r="F104" s="5">
-        <v>139</v>
-      </c>
-      <c r="G104">
-        <f t="shared" si="1"/>
-        <v>1390</v>
+        <v>149</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105">
-        <v>1014</v>
+        <v>1016</v>
       </c>
       <c r="B105" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D105">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="E105">
         <v>1</v>
       </c>
       <c r="F105" s="5">
-        <v>1399</v>
-      </c>
-      <c r="G105">
-        <f t="shared" si="1"/>
-        <v>13990</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A106">
-        <v>1015</v>
-      </c>
-      <c r="B106" t="s">
-        <v>84</v>
-      </c>
-      <c r="C106" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="D106">
-        <v>51</v>
-      </c>
-      <c r="E106">
-        <v>1</v>
-      </c>
-      <c r="F106" s="5">
-        <v>149</v>
-      </c>
-      <c r="G106">
-        <f t="shared" si="1"/>
-        <v>1490</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A107">
-        <v>1016</v>
-      </c>
-      <c r="B107" t="s">
-        <v>85</v>
-      </c>
-      <c r="C107" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="D107">
-        <v>52</v>
-      </c>
-      <c r="E107">
-        <v>1</v>
-      </c>
-      <c r="F107" s="5">
         <v>349</v>
-      </c>
-      <c r="G107">
-        <f t="shared" si="1"/>
-        <v>3490</v>
       </c>
     </row>
   </sheetData>

--- a/docs/excel/TItem.xlsx
+++ b/docs/excel/TItem.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="28845" yWindow="195" windowWidth="27075" windowHeight="12045" tabRatio="204"/>
+    <workbookView xWindow="28845" yWindow="195" windowWidth="27075" windowHeight="11955" tabRatio="204"/>
   </bookViews>
   <sheets>
     <sheet name="TItem" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="231">
   <si>
     <t>string</t>
   </si>
@@ -11919,6 +11919,22 @@
   </si>
   <si>
     <t>免费次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钻石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钻石券</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>真实价格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RealPrice</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -12354,10 +12370,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F105"/>
+  <dimension ref="A1:G107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E61" sqref="E61"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -12365,10 +12381,11 @@
     <col min="1" max="2" width="50" style="1" customWidth="1"/>
     <col min="3" max="3" width="81.59765625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.19921875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.69921875" customWidth="1"/>
+    <col min="6" max="6" width="10.8984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>50</v>
       </c>
@@ -12387,8 +12404,11 @@
       <c r="F1" s="4" t="s">
         <v>86</v>
       </c>
+      <c r="G1" s="4" t="s">
+        <v>230</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>56</v>
       </c>
@@ -12407,13 +12427,16 @@
       <c r="F2" t="s">
         <v>7</v>
       </c>
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -12432,432 +12455,521 @@
       <c r="F4" s="6" t="s">
         <v>223</v>
       </c>
+      <c r="G4" s="6" t="s">
+        <v>229</v>
+      </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
+        <v>10001</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="E5">
+        <v>10</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>10002</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="E6">
+        <v>10</v>
+      </c>
+      <c r="F6" s="5">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7">
         <v>8001</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B7" t="s">
         <v>128</v>
       </c>
-      <c r="E5">
+      <c r="E7">
         <v>8</v>
       </c>
+      <c r="G7">
+        <f t="shared" ref="G6:G69" si="0">F7*10</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8">
         <v>7001</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B8" t="s">
         <v>87</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C8" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="D6">
+      <c r="D8">
         <v>12</v>
-      </c>
-      <c r="E6">
-        <v>7</v>
-      </c>
-      <c r="F6" s="5">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>7002</v>
-      </c>
-      <c r="B7" t="s">
-        <v>88</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="D7">
-        <v>23</v>
-      </c>
-      <c r="E7">
-        <v>7</v>
-      </c>
-      <c r="F7" s="5">
-        <v>1299</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>7003</v>
-      </c>
-      <c r="B8" t="s">
-        <v>89</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="D8">
-        <v>31</v>
       </c>
       <c r="E8">
         <v>7</v>
       </c>
       <c r="F8" s="5">
-        <v>299</v>
+        <v>289</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>2890</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>7004</v>
+        <v>7002</v>
       </c>
       <c r="B9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D9">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>7</v>
       </c>
       <c r="F9" s="5">
-        <v>189</v>
+        <v>1299</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>12990</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>7005</v>
+        <v>7003</v>
       </c>
       <c r="B10" t="s">
-        <v>61</v>
+        <v>89</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D10">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="E10">
         <v>7</v>
       </c>
       <c r="F10" s="5">
-        <v>10</v>
+        <v>299</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>2990</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>7006</v>
+        <v>7004</v>
       </c>
       <c r="B11" t="s">
-        <v>62</v>
+        <v>90</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D11">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="E11">
         <v>7</v>
       </c>
       <c r="F11" s="5">
-        <v>26</v>
+        <v>189</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>1890</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>7007</v>
+        <v>7005</v>
       </c>
       <c r="B12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D12">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E12">
         <v>7</v>
       </c>
       <c r="F12" s="5">
-        <v>68</v>
+        <v>10</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>7008</v>
+        <v>7006</v>
       </c>
       <c r="B13" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D13">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E13">
         <v>7</v>
       </c>
       <c r="F13" s="5">
-        <v>39</v>
+        <v>26</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>260</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>7009</v>
+        <v>7007</v>
       </c>
       <c r="B14" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D14">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="E14">
         <v>7</v>
       </c>
       <c r="F14" s="5">
-        <v>179</v>
+        <v>68</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>680</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>7010</v>
+        <v>7008</v>
       </c>
       <c r="B15" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D15">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E15">
         <v>7</v>
       </c>
       <c r="F15" s="5">
-        <v>129</v>
+        <v>39</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>390</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>7011</v>
+        <v>7009</v>
       </c>
       <c r="B16" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D16">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="E16">
         <v>7</v>
       </c>
       <c r="F16" s="5">
-        <v>389</v>
+        <v>179</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>1790</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>7012</v>
+        <v>7010</v>
       </c>
       <c r="B17" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D17">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="E17">
         <v>7</v>
       </c>
       <c r="F17" s="5">
-        <v>199</v>
+        <v>129</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="0"/>
+        <v>1290</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>7013</v>
+        <v>7011</v>
       </c>
       <c r="B18" t="s">
-        <v>66</v>
+        <v>91</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D18">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="E18">
         <v>7</v>
       </c>
       <c r="F18" s="5">
-        <v>79</v>
+        <v>389</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="0"/>
+        <v>3890</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>7014</v>
+        <v>7012</v>
       </c>
       <c r="B19" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D19">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E19">
         <v>7</v>
       </c>
       <c r="F19" s="5">
-        <v>39</v>
+        <v>199</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="0"/>
+        <v>1990</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>7015</v>
+        <v>7013</v>
       </c>
       <c r="B20" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D20">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E20">
         <v>7</v>
       </c>
       <c r="F20" s="5">
-        <v>158</v>
+        <v>79</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="0"/>
+        <v>790</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>7016</v>
+        <v>7014</v>
       </c>
       <c r="B21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D21">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="E21">
         <v>7</v>
       </c>
       <c r="F21" s="5">
-        <v>58</v>
+        <v>39</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="0"/>
+        <v>390</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>7017</v>
+        <v>7015</v>
       </c>
       <c r="B22" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D22">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="E22">
         <v>7</v>
       </c>
       <c r="F22" s="5">
-        <v>89</v>
+        <v>158</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="0"/>
+        <v>1580</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>7018</v>
+        <v>7016</v>
       </c>
       <c r="B23" t="s">
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D23">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E23">
         <v>7</v>
       </c>
       <c r="F23" s="5">
-        <v>59</v>
+        <v>58</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="0"/>
+        <v>580</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>7019</v>
+        <v>7017</v>
       </c>
       <c r="B24" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D24">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="E24">
         <v>7</v>
       </c>
       <c r="F24" s="5">
+        <v>89</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="0"/>
+        <v>890</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>7018</v>
+      </c>
+      <c r="B25" t="s">
+        <v>95</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="D25">
+        <v>85</v>
+      </c>
+      <c r="E25">
+        <v>7</v>
+      </c>
+      <c r="F25" s="5">
+        <v>59</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="0"/>
+        <v>590</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>7019</v>
+      </c>
+      <c r="B26" t="s">
+        <v>96</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D26">
+        <v>90</v>
+      </c>
+      <c r="E26">
+        <v>7</v>
+      </c>
+      <c r="F26" s="5">
         <v>129</v>
       </c>
+      <c r="G26">
+        <f t="shared" si="0"/>
+        <v>1290</v>
+      </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27">
         <v>6001</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B27" t="s">
         <v>69</v>
-      </c>
-      <c r="E25">
-        <v>6</v>
-      </c>
-      <c r="F25" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>6002</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="E26">
-        <v>6</v>
-      </c>
-      <c r="F26" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>6003</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>129</v>
       </c>
       <c r="E27">
         <v>6</v>
@@ -12865,27 +12977,35 @@
       <c r="F27" s="5">
         <v>0</v>
       </c>
+      <c r="G27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>6004</v>
-      </c>
-      <c r="B28" t="s">
-        <v>126</v>
+        <v>6002</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>127</v>
       </c>
       <c r="E28">
         <v>6</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="5">
         <v>0</v>
       </c>
+      <c r="G28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>6005</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>226</v>
+        <v>6003</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>129</v>
       </c>
       <c r="E29">
         <v>6</v>
@@ -12893,1522 +13013,1866 @@
       <c r="F29" s="5">
         <v>0</v>
       </c>
+      <c r="G29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30">
+        <v>6004</v>
+      </c>
+      <c r="B30" t="s">
+        <v>126</v>
+      </c>
+      <c r="E30">
+        <v>6</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>6005</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="E31">
+        <v>6</v>
+      </c>
+      <c r="F31" s="5">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32">
         <v>5001</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B32" t="s">
         <v>70</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C32" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="D30">
+      <c r="D32">
         <v>59</v>
-      </c>
-      <c r="E30">
-        <v>5</v>
-      </c>
-      <c r="F30" s="5">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>5002</v>
-      </c>
-      <c r="B31" t="s">
-        <v>22</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="D31">
-        <v>76</v>
-      </c>
-      <c r="E31">
-        <v>5</v>
-      </c>
-      <c r="F31" s="5">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <v>5003</v>
-      </c>
-      <c r="B32" t="s">
-        <v>28</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="D32">
-        <v>84</v>
       </c>
       <c r="E32">
         <v>5</v>
       </c>
       <c r="F32" s="5">
-        <v>30</v>
+        <v>100</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="0"/>
+        <v>1000</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>5004</v>
+        <v>5002</v>
       </c>
       <c r="B33" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D33">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="E33">
         <v>5</v>
       </c>
       <c r="F33" s="5">
+        <v>50</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>5003</v>
+      </c>
+      <c r="B34" t="s">
+        <v>28</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="D34">
+        <v>84</v>
+      </c>
+      <c r="E34">
+        <v>5</v>
+      </c>
+      <c r="F34" s="5">
+        <v>30</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="0"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>5004</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="D35">
+        <v>91</v>
+      </c>
+      <c r="E35">
+        <v>5</v>
+      </c>
+      <c r="F35" s="5">
         <v>10</v>
       </c>
+      <c r="G35">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36">
         <v>4001</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B36" t="s">
         <v>97</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C36" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="D34">
+      <c r="D36">
         <v>9</v>
-      </c>
-      <c r="E34">
-        <v>4</v>
-      </c>
-      <c r="F34" s="5">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35">
-        <v>4002</v>
-      </c>
-      <c r="B35" t="s">
-        <v>17</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="D35">
-        <v>18</v>
-      </c>
-      <c r="E35">
-        <v>4</v>
-      </c>
-      <c r="F35" s="5">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36">
-        <v>4003</v>
-      </c>
-      <c r="B36" t="s">
-        <v>19</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="D36">
-        <v>24</v>
       </c>
       <c r="E36">
         <v>4</v>
       </c>
       <c r="F36" s="5">
-        <v>119</v>
+        <v>350</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="0"/>
+        <v>3500</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>4004</v>
+        <v>4002</v>
       </c>
       <c r="B37" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D37">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E37">
         <v>4</v>
       </c>
       <c r="F37" s="5">
-        <v>49</v>
+        <v>198</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="0"/>
+        <v>1980</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>4005</v>
+        <v>4003</v>
       </c>
       <c r="B38" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D38">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E38">
         <v>4</v>
       </c>
       <c r="F38" s="5">
-        <v>40</v>
+        <v>119</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="0"/>
+        <v>1190</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>4006</v>
+        <v>4004</v>
       </c>
       <c r="B39" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D39">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E39">
         <v>4</v>
       </c>
       <c r="F39" s="5">
-        <v>34</v>
+        <v>49</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="0"/>
+        <v>490</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>4007</v>
+        <v>4005</v>
       </c>
       <c r="B40" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D40">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E40">
         <v>4</v>
       </c>
       <c r="F40" s="5">
-        <v>23</v>
+        <v>40</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="0"/>
+        <v>400</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>4008</v>
+        <v>4006</v>
       </c>
       <c r="B41" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D41">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E41">
         <v>4</v>
       </c>
       <c r="F41" s="5">
-        <v>20</v>
+        <v>34</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="0"/>
+        <v>340</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>4009</v>
+        <v>4007</v>
       </c>
       <c r="B42" t="s">
+        <v>30</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="D42">
         <v>32</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="D42">
-        <v>39</v>
       </c>
       <c r="E42">
         <v>4</v>
       </c>
       <c r="F42" s="5">
-        <v>10</v>
+        <v>23</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="0"/>
+        <v>230</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>4010</v>
+        <v>4008</v>
       </c>
       <c r="B43" t="s">
-        <v>98</v>
+        <v>31</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D43">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="E43">
         <v>4</v>
       </c>
       <c r="F43" s="5">
-        <v>199</v>
+        <v>20</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="0"/>
+        <v>200</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>4011</v>
+        <v>4009</v>
       </c>
       <c r="B44" t="s">
-        <v>99</v>
+        <v>32</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D44">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="E44">
         <v>4</v>
       </c>
       <c r="F44" s="5">
-        <v>59</v>
+        <v>10</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="0"/>
+        <v>100</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>4012</v>
+        <v>4010</v>
       </c>
       <c r="B45" t="s">
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D45">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E45">
         <v>4</v>
       </c>
       <c r="F45" s="5">
-        <v>348</v>
+        <v>199</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="0"/>
+        <v>1990</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>4013</v>
+        <v>4011</v>
       </c>
       <c r="B46" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D46">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="E46">
         <v>4</v>
       </c>
       <c r="F46" s="5">
-        <v>99</v>
+        <v>59</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="0"/>
+        <v>590</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>4014</v>
+        <v>4012</v>
       </c>
       <c r="B47" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D47">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="E47">
         <v>4</v>
       </c>
       <c r="F47" s="5">
-        <v>768</v>
+        <v>348</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="0"/>
+        <v>3480</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>4015</v>
+        <v>4013</v>
       </c>
       <c r="B48" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D48">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E48">
         <v>4</v>
       </c>
       <c r="F48" s="5">
-        <v>129</v>
+        <v>99</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="0"/>
+        <v>990</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>4016</v>
+        <v>4014</v>
       </c>
       <c r="B49" t="s">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="C49" s="7" t="s">
         <v>166</v>
       </c>
       <c r="D49">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E49">
         <v>4</v>
       </c>
       <c r="F49" s="5">
-        <v>88</v>
+        <v>768</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="0"/>
+        <v>7680</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>4017</v>
+        <v>4015</v>
       </c>
       <c r="B50" t="s">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D50">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E50">
         <v>4</v>
       </c>
       <c r="F50" s="5">
-        <v>178</v>
+        <v>129</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="0"/>
+        <v>1290</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>4018</v>
+        <v>4016</v>
       </c>
       <c r="B51" t="s">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D51">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="E51">
         <v>4</v>
       </c>
       <c r="F51" s="5">
-        <v>68</v>
+        <v>88</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="0"/>
+        <v>880</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>4019</v>
+        <v>4017</v>
       </c>
       <c r="B52" t="s">
-        <v>103</v>
+        <v>73</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D52">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="E52">
         <v>4</v>
       </c>
       <c r="F52" s="5">
-        <v>1499</v>
+        <v>178</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="0"/>
+        <v>1780</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>4020</v>
+        <v>4018</v>
       </c>
       <c r="B53" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D53">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="E53">
         <v>4</v>
       </c>
       <c r="F53" s="5">
-        <v>386</v>
+        <v>68</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="0"/>
+        <v>680</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>4021</v>
+        <v>4019</v>
       </c>
       <c r="B54" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D54">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="E54">
         <v>4</v>
       </c>
       <c r="F54" s="5">
-        <v>309</v>
+        <v>1499</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="0"/>
+        <v>14990</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>4022</v>
+        <v>4020</v>
       </c>
       <c r="B55" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D55">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="E55">
         <v>4</v>
       </c>
       <c r="F55" s="5">
-        <v>100</v>
+        <v>386</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="0"/>
+        <v>3860</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>4023</v>
+        <v>4021</v>
       </c>
       <c r="B56" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D56">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="E56">
         <v>4</v>
       </c>
       <c r="F56" s="5">
-        <v>178</v>
+        <v>309</v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="0"/>
+        <v>3090</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>4024</v>
+        <v>4022</v>
       </c>
       <c r="B57" t="s">
-        <v>75</v>
+        <v>106</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D57">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E57">
         <v>4</v>
       </c>
       <c r="F57" s="5">
-        <v>298</v>
+        <v>100</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="0"/>
+        <v>1000</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>4025</v>
+        <v>4023</v>
       </c>
       <c r="B58" t="s">
-        <v>76</v>
+        <v>107</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D58">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="E58">
         <v>4</v>
       </c>
       <c r="F58" s="5">
+        <v>178</v>
+      </c>
+      <c r="G58">
+        <f t="shared" si="0"/>
+        <v>1780</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>4024</v>
+      </c>
+      <c r="B59" t="s">
+        <v>75</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="D59">
+        <v>88</v>
+      </c>
+      <c r="E59">
+        <v>4</v>
+      </c>
+      <c r="F59" s="5">
         <v>298</v>
       </c>
+      <c r="G59">
+        <f t="shared" si="0"/>
+        <v>2980</v>
+      </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A59">
-        <v>4026</v>
-      </c>
-      <c r="B59" t="s">
-        <v>77</v>
-      </c>
-      <c r="C59" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="D59">
-        <v>94</v>
-      </c>
-      <c r="E59">
-        <v>9</v>
-      </c>
-      <c r="F59" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>4027</v>
-      </c>
-      <c r="B60" s="6" t="s">
-        <v>125</v>
+        <v>4025</v>
+      </c>
+      <c r="B60" t="s">
+        <v>76</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
+      </c>
+      <c r="D60">
+        <v>92</v>
       </c>
       <c r="E60">
         <v>4</v>
       </c>
       <c r="F60" s="5">
+        <v>298</v>
+      </c>
+      <c r="G60">
+        <f t="shared" si="0"/>
+        <v>2980</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>4026</v>
+      </c>
+      <c r="B61" t="s">
+        <v>77</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="D61">
+        <v>94</v>
+      </c>
+      <c r="E61">
+        <v>9</v>
+      </c>
+      <c r="F61" s="5">
+        <v>3</v>
+      </c>
+      <c r="G61">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>4027</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="E62">
+        <v>4</v>
+      </c>
+      <c r="F62" s="5">
         <v>11</v>
       </c>
+      <c r="G62">
+        <f t="shared" si="0"/>
+        <v>110</v>
+      </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A61">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A63">
         <v>3001</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B63" t="s">
         <v>10</v>
       </c>
-      <c r="C61" s="7" t="s">
+      <c r="C63" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="D61">
+      <c r="D63">
         <v>4</v>
-      </c>
-      <c r="E61">
-        <v>3</v>
-      </c>
-      <c r="F61" s="5">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A62">
-        <v>3002</v>
-      </c>
-      <c r="B62" t="s">
-        <v>13</v>
-      </c>
-      <c r="C62" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="D62">
-        <v>13</v>
-      </c>
-      <c r="E62">
-        <v>3</v>
-      </c>
-      <c r="F62" s="5">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A63">
-        <v>3003</v>
-      </c>
-      <c r="B63" t="s">
-        <v>15</v>
-      </c>
-      <c r="C63" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="D63">
-        <v>16</v>
       </c>
       <c r="E63">
         <v>3</v>
       </c>
       <c r="F63" s="5">
-        <v>283</v>
+        <v>898</v>
+      </c>
+      <c r="G63">
+        <f t="shared" si="0"/>
+        <v>8980</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>3004</v>
+        <v>3002</v>
       </c>
       <c r="B64" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D64">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E64">
         <v>3</v>
       </c>
       <c r="F64" s="5">
-        <v>78</v>
+        <v>315</v>
+      </c>
+      <c r="G64">
+        <f t="shared" si="0"/>
+        <v>3150</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>3005</v>
+        <v>3003</v>
       </c>
       <c r="B65" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D65">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E65">
         <v>3</v>
       </c>
       <c r="F65" s="5">
-        <v>59</v>
+        <v>283</v>
+      </c>
+      <c r="G65">
+        <f t="shared" si="0"/>
+        <v>2830</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66">
-        <v>3006</v>
+        <v>3004</v>
       </c>
       <c r="B66" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D66">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E66">
         <v>3</v>
       </c>
       <c r="F66" s="5">
-        <v>39</v>
+        <v>78</v>
+      </c>
+      <c r="G66">
+        <f t="shared" si="0"/>
+        <v>780</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67">
-        <v>3007</v>
+        <v>3005</v>
       </c>
       <c r="B67" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D67">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="E67">
         <v>3</v>
       </c>
       <c r="F67" s="5">
+        <v>59</v>
+      </c>
+      <c r="G67">
+        <f t="shared" si="0"/>
+        <v>590</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>3006</v>
+      </c>
+      <c r="B68" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A68">
-        <v>3008</v>
-      </c>
-      <c r="B68" t="s">
-        <v>108</v>
-      </c>
       <c r="C68" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D68">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E68">
         <v>3</v>
       </c>
       <c r="F68" s="5">
-        <v>248</v>
+        <v>39</v>
+      </c>
+      <c r="G68">
+        <f t="shared" si="0"/>
+        <v>390</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69">
-        <v>3009</v>
+        <v>3007</v>
       </c>
       <c r="B69" t="s">
-        <v>109</v>
+        <v>29</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D69">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E69">
         <v>3</v>
       </c>
       <c r="F69" s="5">
-        <v>189</v>
+        <v>26</v>
+      </c>
+      <c r="G69">
+        <f t="shared" si="0"/>
+        <v>260</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70">
-        <v>3010</v>
+        <v>3008</v>
       </c>
       <c r="B70" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D70">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="E70">
         <v>3</v>
       </c>
       <c r="F70" s="5">
-        <v>80</v>
+        <v>248</v>
+      </c>
+      <c r="G70">
+        <f t="shared" ref="G70:G107" si="1">F70*10</f>
+        <v>2480</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71">
-        <v>3011</v>
+        <v>3009</v>
       </c>
       <c r="B71" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D71">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E71">
         <v>3</v>
       </c>
       <c r="F71" s="5">
-        <v>1199</v>
+        <v>189</v>
+      </c>
+      <c r="G71">
+        <f t="shared" si="1"/>
+        <v>1890</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72">
-        <v>3012</v>
+        <v>3010</v>
       </c>
       <c r="B72" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D72">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="E72">
         <v>3</v>
       </c>
       <c r="F72" s="5">
-        <v>129</v>
+        <v>80</v>
+      </c>
+      <c r="G72">
+        <f t="shared" si="1"/>
+        <v>800</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73">
-        <v>3013</v>
+        <v>3011</v>
       </c>
       <c r="B73" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D73">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E73">
         <v>3</v>
       </c>
       <c r="F73" s="5">
-        <v>199</v>
+        <v>1199</v>
+      </c>
+      <c r="G73">
+        <f t="shared" si="1"/>
+        <v>11990</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74">
-        <v>3014</v>
+        <v>3012</v>
       </c>
       <c r="B74" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D74">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="E74">
         <v>3</v>
       </c>
       <c r="F74" s="5">
-        <v>99</v>
+        <v>129</v>
+      </c>
+      <c r="G74">
+        <f t="shared" si="1"/>
+        <v>1290</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75">
-        <v>3015</v>
+        <v>3013</v>
       </c>
       <c r="B75" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D75">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="E75">
         <v>3</v>
       </c>
       <c r="F75" s="5">
-        <v>78</v>
+        <v>199</v>
+      </c>
+      <c r="G75">
+        <f t="shared" si="1"/>
+        <v>1990</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76">
-        <v>3016</v>
+        <v>3014</v>
       </c>
       <c r="B76" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D76">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E76">
         <v>3</v>
       </c>
       <c r="F76" s="5">
-        <v>79</v>
+        <v>99</v>
+      </c>
+      <c r="G76">
+        <f t="shared" si="1"/>
+        <v>990</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77">
-        <v>3017</v>
+        <v>3015</v>
       </c>
       <c r="B77" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D77">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E77">
         <v>3</v>
       </c>
       <c r="F77" s="5">
-        <v>2893</v>
+        <v>78</v>
+      </c>
+      <c r="G77">
+        <f t="shared" si="1"/>
+        <v>780</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78">
-        <v>3018</v>
+        <v>3016</v>
       </c>
       <c r="B78" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D78">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E78">
         <v>3</v>
       </c>
       <c r="F78" s="5">
-        <v>840</v>
+        <v>79</v>
+      </c>
+      <c r="G78">
+        <f t="shared" si="1"/>
+        <v>790</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79">
-        <v>3019</v>
+        <v>3017</v>
       </c>
       <c r="B79" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D79">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E79">
         <v>3</v>
       </c>
       <c r="F79" s="5">
-        <v>149</v>
+        <v>2893</v>
+      </c>
+      <c r="G79">
+        <f t="shared" si="1"/>
+        <v>28930</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80">
-        <v>3020</v>
+        <v>3018</v>
       </c>
       <c r="B80" t="s">
-        <v>78</v>
+        <v>118</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D80">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="E80">
         <v>3</v>
       </c>
       <c r="F80" s="5">
-        <v>529</v>
+        <v>840</v>
+      </c>
+      <c r="G80">
+        <f t="shared" si="1"/>
+        <v>8400</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81">
-        <v>3021</v>
+        <v>3019</v>
       </c>
       <c r="B81" t="s">
-        <v>79</v>
+        <v>119</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D81">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="E81">
         <v>3</v>
       </c>
       <c r="F81" s="5">
+        <v>149</v>
+      </c>
+      <c r="G81">
+        <f t="shared" si="1"/>
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>3020</v>
+      </c>
+      <c r="B82" t="s">
+        <v>78</v>
+      </c>
+      <c r="C82" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="D82">
+        <v>82</v>
+      </c>
+      <c r="E82">
+        <v>3</v>
+      </c>
+      <c r="F82" s="5">
+        <v>529</v>
+      </c>
+      <c r="G82">
+        <f t="shared" si="1"/>
+        <v>5290</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>3021</v>
+      </c>
+      <c r="B83" t="s">
+        <v>79</v>
+      </c>
+      <c r="C83" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="D83">
+        <v>86</v>
+      </c>
+      <c r="E83">
+        <v>3</v>
+      </c>
+      <c r="F83" s="5">
         <v>129</v>
       </c>
+      <c r="G83">
+        <f t="shared" si="1"/>
+        <v>1290</v>
+      </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A82">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A84">
         <v>2001</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B84" t="s">
         <v>9</v>
       </c>
-      <c r="C82" s="7" t="s">
+      <c r="C84" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="D82">
+      <c r="D84">
         <v>15</v>
-      </c>
-      <c r="E82">
-        <v>2</v>
-      </c>
-      <c r="F82" s="5">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A83">
-        <v>2002</v>
-      </c>
-      <c r="B83" t="s">
-        <v>12</v>
-      </c>
-      <c r="C83" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="D83">
-        <v>22</v>
-      </c>
-      <c r="E83">
-        <v>2</v>
-      </c>
-      <c r="F83" s="5">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A84">
-        <v>2003</v>
-      </c>
-      <c r="B84" t="s">
-        <v>14</v>
-      </c>
-      <c r="C84" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="D84">
-        <v>30</v>
       </c>
       <c r="E84">
         <v>2</v>
       </c>
       <c r="F84" s="5">
-        <v>300</v>
+        <v>1000</v>
+      </c>
+      <c r="G84">
+        <f t="shared" si="1"/>
+        <v>10000</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="B85" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D85">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="E85">
         <v>2</v>
       </c>
       <c r="F85" s="5">
-        <v>200</v>
+        <v>500</v>
+      </c>
+      <c r="G85">
+        <f t="shared" si="1"/>
+        <v>5000</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="B86" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D86">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="E86">
         <v>2</v>
       </c>
       <c r="F86" s="5">
-        <v>190</v>
+        <v>300</v>
+      </c>
+      <c r="G86">
+        <f t="shared" si="1"/>
+        <v>3000</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="B87" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D87">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="E87">
         <v>2</v>
       </c>
       <c r="F87" s="5">
-        <v>50</v>
+        <v>200</v>
+      </c>
+      <c r="G87">
+        <f t="shared" si="1"/>
+        <v>2000</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="B88" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D88">
-        <v>89</v>
+        <v>43</v>
       </c>
       <c r="E88">
         <v>2</v>
       </c>
       <c r="F88" s="5">
-        <v>20</v>
+        <v>190</v>
+      </c>
+      <c r="G88">
+        <f t="shared" si="1"/>
+        <v>1900</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="B89" t="s">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D89">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="E89">
         <v>2</v>
       </c>
       <c r="F89" s="5">
+        <v>50</v>
+      </c>
+      <c r="G89">
+        <f t="shared" si="1"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>2007</v>
+      </c>
+      <c r="B90" t="s">
+        <v>59</v>
+      </c>
+      <c r="C90" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="D90">
+        <v>89</v>
+      </c>
+      <c r="E90">
+        <v>2</v>
+      </c>
+      <c r="F90" s="5">
+        <v>20</v>
+      </c>
+      <c r="G90">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>2008</v>
+      </c>
+      <c r="B91" t="s">
+        <v>60</v>
+      </c>
+      <c r="C91" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="D91">
+        <v>93</v>
+      </c>
+      <c r="E91">
+        <v>2</v>
+      </c>
+      <c r="F91" s="5">
         <v>10</v>
       </c>
+      <c r="G91">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A90">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A92">
         <v>1001</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B92" t="s">
         <v>57</v>
       </c>
-      <c r="C90" s="7" t="s">
+      <c r="C92" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="D90">
+      <c r="D92">
         <v>1</v>
-      </c>
-      <c r="E90">
-        <v>1</v>
-      </c>
-      <c r="F90" s="5">
-        <v>8488</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A91">
-        <v>1002</v>
-      </c>
-      <c r="B91" t="s">
-        <v>8</v>
-      </c>
-      <c r="C91" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="D91">
-        <v>2</v>
-      </c>
-      <c r="E91">
-        <v>1</v>
-      </c>
-      <c r="F91" s="5">
-        <v>1960</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A92">
-        <v>1003</v>
-      </c>
-      <c r="B92" t="s">
-        <v>58</v>
-      </c>
-      <c r="C92" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="D92">
-        <v>3</v>
       </c>
       <c r="E92">
         <v>1</v>
       </c>
       <c r="F92" s="5">
-        <v>1399</v>
+        <v>8488</v>
+      </c>
+      <c r="G92">
+        <f t="shared" si="1"/>
+        <v>84880</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="B93" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D93">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E93">
         <v>1</v>
       </c>
       <c r="F93" s="5">
-        <v>529</v>
+        <v>1960</v>
+      </c>
+      <c r="G93">
+        <f t="shared" si="1"/>
+        <v>19600</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="B94" t="s">
-        <v>120</v>
+        <v>58</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D94">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E94">
         <v>1</v>
       </c>
       <c r="F94" s="5">
-        <v>658</v>
+        <v>1399</v>
+      </c>
+      <c r="G94">
+        <f t="shared" si="1"/>
+        <v>13990</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="B95" t="s">
-        <v>121</v>
+        <v>11</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D95">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E95">
         <v>1</v>
       </c>
       <c r="F95" s="5">
-        <v>2300</v>
+        <v>529</v>
+      </c>
+      <c r="G95">
+        <f t="shared" si="1"/>
+        <v>5290</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="B96" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D96">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E96">
         <v>1</v>
       </c>
       <c r="F96" s="5">
-        <v>3099</v>
+        <v>658</v>
+      </c>
+      <c r="G96">
+        <f t="shared" si="1"/>
+        <v>6580</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="B97" t="s">
-        <v>80</v>
+        <v>121</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D97">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E97">
         <v>1</v>
       </c>
       <c r="F97" s="5">
-        <v>1998</v>
+        <v>2300</v>
+      </c>
+      <c r="G97">
+        <f t="shared" si="1"/>
+        <v>23000</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="B98" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D98">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E98">
         <v>1</v>
       </c>
       <c r="F98" s="5">
-        <v>3498</v>
+        <v>3099</v>
+      </c>
+      <c r="G98">
+        <f t="shared" si="1"/>
+        <v>30990</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="B99" t="s">
-        <v>124</v>
+        <v>80</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D99">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E99">
         <v>1</v>
       </c>
       <c r="F99" s="5">
-        <v>1199</v>
+        <v>1998</v>
+      </c>
+      <c r="G99">
+        <f t="shared" si="1"/>
+        <v>19980</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="B100" t="s">
-        <v>81</v>
+        <v>123</v>
       </c>
       <c r="C100" s="7" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D100">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E100">
         <v>1</v>
       </c>
       <c r="F100" s="5">
-        <v>2699</v>
+        <v>3498</v>
+      </c>
+      <c r="G100">
+        <f t="shared" si="1"/>
+        <v>34980</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="B101" t="s">
-        <v>82</v>
+        <v>124</v>
       </c>
       <c r="C101" s="7" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D101">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E101">
         <v>1</v>
       </c>
       <c r="F101" s="5">
-        <v>199</v>
+        <v>1199</v>
+      </c>
+      <c r="G101">
+        <f t="shared" si="1"/>
+        <v>11990</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102">
-        <v>1013</v>
-      </c>
-      <c r="B102" s="6" t="s">
-        <v>225</v>
+        <v>1011</v>
+      </c>
+      <c r="B102" t="s">
+        <v>81</v>
       </c>
       <c r="C102" s="7" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="D102">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E102">
         <v>1</v>
       </c>
       <c r="F102" s="5">
-        <v>139</v>
+        <v>2699</v>
+      </c>
+      <c r="G102">
+        <f t="shared" si="1"/>
+        <v>26990</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="B103" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C103" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D103">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="E103">
         <v>1</v>
       </c>
       <c r="F103" s="5">
-        <v>1399</v>
+        <v>199</v>
+      </c>
+      <c r="G103">
+        <f t="shared" si="1"/>
+        <v>1990</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104">
-        <v>1015</v>
-      </c>
-      <c r="B104" t="s">
-        <v>84</v>
+        <v>1013</v>
+      </c>
+      <c r="B104" s="6" t="s">
+        <v>225</v>
       </c>
       <c r="C104" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="D104">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="E104">
         <v>1</v>
       </c>
       <c r="F104" s="5">
-        <v>149</v>
+        <v>139</v>
+      </c>
+      <c r="G104">
+        <f t="shared" si="1"/>
+        <v>1390</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="B105" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D105">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="E105">
         <v>1</v>
       </c>
       <c r="F105" s="5">
+        <v>1399</v>
+      </c>
+      <c r="G105">
+        <f t="shared" si="1"/>
+        <v>13990</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>1015</v>
+      </c>
+      <c r="B106" t="s">
+        <v>84</v>
+      </c>
+      <c r="C106" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="D106">
+        <v>51</v>
+      </c>
+      <c r="E106">
+        <v>1</v>
+      </c>
+      <c r="F106" s="5">
+        <v>149</v>
+      </c>
+      <c r="G106">
+        <f t="shared" si="1"/>
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>1016</v>
+      </c>
+      <c r="B107" t="s">
+        <v>85</v>
+      </c>
+      <c r="C107" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="D107">
+        <v>52</v>
+      </c>
+      <c r="E107">
+        <v>1</v>
+      </c>
+      <c r="F107" s="5">
         <v>349</v>
+      </c>
+      <c r="G107">
+        <f t="shared" si="1"/>
+        <v>3490</v>
       </c>
     </row>
   </sheetData>

--- a/docs/excel/TItem.xlsx
+++ b/docs/excel/TItem.xlsx
@@ -414,10 +414,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>金币</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>金券</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -433,43 +429,6 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>代金券</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>作废，不要使用</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
       <t>名称</t>
     </r>
     <r>
@@ -11936,6 +11895,14 @@
   <si>
     <t>RealPrice</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作废货币</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -11945,7 +11912,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="Verdana"/>
@@ -11971,12 +11938,6 @@
     <font>
       <sz val="12"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Verdana"/>
       <family val="3"/>
       <charset val="134"/>
     </font>
@@ -12009,7 +11970,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -12027,9 +11988,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -12372,8 +12330,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -12405,7 +12363,7 @@
         <v>86</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -12453,10 +12411,10 @@
         <v>6</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -12464,7 +12422,7 @@
         <v>10001</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E5">
         <v>10</v>
@@ -12481,7 +12439,7 @@
         <v>10002</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E6">
         <v>10</v>
@@ -12498,13 +12456,13 @@
         <v>8001</v>
       </c>
       <c r="B7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E7">
         <v>8</v>
       </c>
       <c r="G7">
-        <f t="shared" ref="G6:G69" si="0">F7*10</f>
+        <f t="shared" ref="G7:G69" si="0">F7*10</f>
         <v>0</v>
       </c>
     </row>
@@ -12516,7 +12474,7 @@
         <v>87</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D8">
         <v>12</v>
@@ -12540,7 +12498,7 @@
         <v>88</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D9">
         <v>23</v>
@@ -12564,7 +12522,7 @@
         <v>89</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D10">
         <v>31</v>
@@ -12588,7 +12546,7 @@
         <v>90</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D11">
         <v>34</v>
@@ -12612,7 +12570,7 @@
         <v>61</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D12">
         <v>38</v>
@@ -12636,7 +12594,7 @@
         <v>62</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D13">
         <v>44</v>
@@ -12660,7 +12618,7 @@
         <v>63</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D14">
         <v>46</v>
@@ -12684,7 +12642,7 @@
         <v>64</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D15">
         <v>49</v>
@@ -12708,7 +12666,7 @@
         <v>65</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D16">
         <v>53</v>
@@ -12732,7 +12690,7 @@
         <v>62</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D17">
         <v>54</v>
@@ -12756,7 +12714,7 @@
         <v>91</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D18">
         <v>63</v>
@@ -12780,7 +12738,7 @@
         <v>92</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D19">
         <v>66</v>
@@ -12804,7 +12762,7 @@
         <v>66</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D20">
         <v>70</v>
@@ -12828,7 +12786,7 @@
         <v>67</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D21">
         <v>72</v>
@@ -12852,7 +12810,7 @@
         <v>93</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D22">
         <v>75</v>
@@ -12876,7 +12834,7 @@
         <v>68</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D23">
         <v>80</v>
@@ -12900,7 +12858,7 @@
         <v>94</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D24">
         <v>81</v>
@@ -12924,7 +12882,7 @@
         <v>95</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D25">
         <v>85</v>
@@ -12948,7 +12906,7 @@
         <v>96</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D26">
         <v>90</v>
@@ -12987,7 +12945,7 @@
         <v>6002</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E28">
         <v>6</v>
@@ -13004,8 +12962,8 @@
       <c r="A29">
         <v>6003</v>
       </c>
-      <c r="B29" s="8" t="s">
-        <v>129</v>
+      <c r="B29" s="6" t="s">
+        <v>229</v>
       </c>
       <c r="E29">
         <v>6</v>
@@ -13022,8 +12980,8 @@
       <c r="A30">
         <v>6004</v>
       </c>
-      <c r="B30" t="s">
-        <v>126</v>
+      <c r="B30" s="6" t="s">
+        <v>230</v>
       </c>
       <c r="E30">
         <v>6</v>
@@ -13041,7 +12999,7 @@
         <v>6005</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E31">
         <v>6</v>
@@ -13062,7 +13020,7 @@
         <v>70</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D32">
         <v>59</v>
@@ -13086,7 +13044,7 @@
         <v>22</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D33">
         <v>76</v>
@@ -13110,7 +13068,7 @@
         <v>28</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D34">
         <v>84</v>
@@ -13134,7 +13092,7 @@
         <v>33</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D35">
         <v>91</v>
@@ -13158,7 +13116,7 @@
         <v>97</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D36">
         <v>9</v>
@@ -13182,7 +13140,7 @@
         <v>17</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D37">
         <v>18</v>
@@ -13206,7 +13164,7 @@
         <v>19</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D38">
         <v>24</v>
@@ -13230,7 +13188,7 @@
         <v>24</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D39">
         <v>25</v>
@@ -13254,7 +13212,7 @@
         <v>25</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D40">
         <v>27</v>
@@ -13278,7 +13236,7 @@
         <v>27</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D41">
         <v>29</v>
@@ -13302,7 +13260,7 @@
         <v>30</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D42">
         <v>32</v>
@@ -13326,7 +13284,7 @@
         <v>31</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D43">
         <v>33</v>
@@ -13350,7 +13308,7 @@
         <v>32</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D44">
         <v>39</v>
@@ -13374,7 +13332,7 @@
         <v>98</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D45">
         <v>42</v>
@@ -13398,7 +13356,7 @@
         <v>99</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D46">
         <v>47</v>
@@ -13422,7 +13380,7 @@
         <v>71</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D47">
         <v>48</v>
@@ -13446,7 +13404,7 @@
         <v>100</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D48">
         <v>55</v>
@@ -13470,7 +13428,7 @@
         <v>72</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D49">
         <v>58</v>
@@ -13494,7 +13452,7 @@
         <v>101</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D50">
         <v>60</v>
@@ -13518,7 +13476,7 @@
         <v>102</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D51">
         <v>61</v>
@@ -13542,7 +13500,7 @@
         <v>73</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D52">
         <v>64</v>
@@ -13566,7 +13524,7 @@
         <v>74</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D53">
         <v>71</v>
@@ -13590,7 +13548,7 @@
         <v>103</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D54">
         <v>73</v>
@@ -13614,7 +13572,7 @@
         <v>104</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D55">
         <v>78</v>
@@ -13638,7 +13596,7 @@
         <v>105</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D56">
         <v>79</v>
@@ -13662,7 +13620,7 @@
         <v>106</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D57">
         <v>83</v>
@@ -13686,7 +13644,7 @@
         <v>107</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D58">
         <v>87</v>
@@ -13710,7 +13668,7 @@
         <v>75</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D59">
         <v>88</v>
@@ -13734,7 +13692,7 @@
         <v>76</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D60">
         <v>92</v>
@@ -13758,7 +13716,7 @@
         <v>77</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D61">
         <v>94</v>
@@ -13782,7 +13740,7 @@
         <v>125</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E62">
         <v>4</v>
@@ -13803,7 +13761,7 @@
         <v>10</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D63">
         <v>4</v>
@@ -13827,7 +13785,7 @@
         <v>13</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D64">
         <v>13</v>
@@ -13851,7 +13809,7 @@
         <v>15</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D65">
         <v>16</v>
@@ -13875,7 +13833,7 @@
         <v>20</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D66">
         <v>17</v>
@@ -13899,7 +13857,7 @@
         <v>21</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D67">
         <v>20</v>
@@ -13923,7 +13881,7 @@
         <v>26</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D68">
         <v>28</v>
@@ -13947,7 +13905,7 @@
         <v>29</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D69">
         <v>35</v>
@@ -13971,7 +13929,7 @@
         <v>108</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D70">
         <v>36</v>
@@ -13995,7 +13953,7 @@
         <v>109</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D71">
         <v>40</v>
@@ -14019,7 +13977,7 @@
         <v>110</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D72">
         <v>45</v>
@@ -14043,7 +14001,7 @@
         <v>111</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D73">
         <v>50</v>
@@ -14067,7 +14025,7 @@
         <v>112</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D74">
         <v>56</v>
@@ -14091,7 +14049,7 @@
         <v>113</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D75">
         <v>57</v>
@@ -14115,7 +14073,7 @@
         <v>114</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D76">
         <v>62</v>
@@ -14139,7 +14097,7 @@
         <v>115</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D77">
         <v>65</v>
@@ -14163,7 +14121,7 @@
         <v>116</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D78">
         <v>67</v>
@@ -14187,7 +14145,7 @@
         <v>117</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D79">
         <v>68</v>
@@ -14211,7 +14169,7 @@
         <v>118</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D80">
         <v>69</v>
@@ -14235,7 +14193,7 @@
         <v>119</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D81">
         <v>74</v>
@@ -14259,7 +14217,7 @@
         <v>78</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D82">
         <v>82</v>
@@ -14283,7 +14241,7 @@
         <v>79</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D83">
         <v>86</v>
@@ -14307,7 +14265,7 @@
         <v>9</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D84">
         <v>15</v>
@@ -14331,7 +14289,7 @@
         <v>12</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D85">
         <v>22</v>
@@ -14355,7 +14313,7 @@
         <v>14</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D86">
         <v>30</v>
@@ -14379,7 +14337,7 @@
         <v>16</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D87">
         <v>37</v>
@@ -14403,7 +14361,7 @@
         <v>18</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D88">
         <v>43</v>
@@ -14427,7 +14385,7 @@
         <v>23</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D89">
         <v>77</v>
@@ -14451,7 +14409,7 @@
         <v>59</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D90">
         <v>89</v>
@@ -14475,7 +14433,7 @@
         <v>60</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D91">
         <v>93</v>
@@ -14499,7 +14457,7 @@
         <v>57</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D92">
         <v>1</v>
@@ -14523,7 +14481,7 @@
         <v>8</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D93">
         <v>2</v>
@@ -14547,7 +14505,7 @@
         <v>58</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D94">
         <v>3</v>
@@ -14571,7 +14529,7 @@
         <v>11</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D95">
         <v>5</v>
@@ -14595,7 +14553,7 @@
         <v>120</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D96">
         <v>6</v>
@@ -14619,7 +14577,7 @@
         <v>121</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D97">
         <v>7</v>
@@ -14643,7 +14601,7 @@
         <v>122</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D98">
         <v>8</v>
@@ -14667,7 +14625,7 @@
         <v>80</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D99">
         <v>10</v>
@@ -14691,7 +14649,7 @@
         <v>123</v>
       </c>
       <c r="C100" s="7" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D100">
         <v>11</v>
@@ -14715,7 +14673,7 @@
         <v>124</v>
       </c>
       <c r="C101" s="7" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D101">
         <v>14</v>
@@ -14739,7 +14697,7 @@
         <v>81</v>
       </c>
       <c r="C102" s="7" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D102">
         <v>19</v>
@@ -14763,7 +14721,7 @@
         <v>82</v>
       </c>
       <c r="C103" s="7" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D103">
         <v>21</v>
@@ -14784,10 +14742,10 @@
         <v>1013</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C104" s="7" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D104">
         <v>26</v>
@@ -14811,7 +14769,7 @@
         <v>83</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D105">
         <v>41</v>
@@ -14835,7 +14793,7 @@
         <v>84</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D106">
         <v>51</v>
@@ -14859,7 +14817,7 @@
         <v>85</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D107">
         <v>52</v>

--- a/docs/excel/TItem.xlsx
+++ b/docs/excel/TItem.xlsx
@@ -414,10 +414,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>金券</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>广告联盟</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -11903,6 +11899,10 @@
   <si>
     <t>作废货币</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>人民币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -12331,7 +12331,7 @@
   <dimension ref="A1:G107"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -12363,7 +12363,7 @@
         <v>86</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -12411,10 +12411,10 @@
         <v>6</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -12422,7 +12422,7 @@
         <v>10001</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E5">
         <v>10</v>
@@ -12439,7 +12439,7 @@
         <v>10002</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E6">
         <v>10</v>
@@ -12456,7 +12456,7 @@
         <v>8001</v>
       </c>
       <c r="B7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E7">
         <v>8</v>
@@ -12474,7 +12474,7 @@
         <v>87</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D8">
         <v>12</v>
@@ -12498,7 +12498,7 @@
         <v>88</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D9">
         <v>23</v>
@@ -12522,7 +12522,7 @@
         <v>89</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D10">
         <v>31</v>
@@ -12546,7 +12546,7 @@
         <v>90</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D11">
         <v>34</v>
@@ -12570,7 +12570,7 @@
         <v>61</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D12">
         <v>38</v>
@@ -12594,7 +12594,7 @@
         <v>62</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D13">
         <v>44</v>
@@ -12618,7 +12618,7 @@
         <v>63</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D14">
         <v>46</v>
@@ -12642,7 +12642,7 @@
         <v>64</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D15">
         <v>49</v>
@@ -12666,7 +12666,7 @@
         <v>65</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D16">
         <v>53</v>
@@ -12690,7 +12690,7 @@
         <v>62</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D17">
         <v>54</v>
@@ -12714,7 +12714,7 @@
         <v>91</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D18">
         <v>63</v>
@@ -12738,7 +12738,7 @@
         <v>92</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D19">
         <v>66</v>
@@ -12762,7 +12762,7 @@
         <v>66</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D20">
         <v>70</v>
@@ -12786,7 +12786,7 @@
         <v>67</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D21">
         <v>72</v>
@@ -12810,7 +12810,7 @@
         <v>93</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D22">
         <v>75</v>
@@ -12834,7 +12834,7 @@
         <v>68</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D23">
         <v>80</v>
@@ -12858,7 +12858,7 @@
         <v>94</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D24">
         <v>81</v>
@@ -12882,7 +12882,7 @@
         <v>95</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D25">
         <v>85</v>
@@ -12906,7 +12906,7 @@
         <v>96</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D26">
         <v>90</v>
@@ -12945,7 +12945,7 @@
         <v>6002</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>126</v>
+        <v>230</v>
       </c>
       <c r="E28">
         <v>6</v>
@@ -12963,7 +12963,7 @@
         <v>6003</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E29">
         <v>6</v>
@@ -12981,7 +12981,7 @@
         <v>6004</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E30">
         <v>6</v>
@@ -12999,7 +12999,7 @@
         <v>6005</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E31">
         <v>6</v>
@@ -13020,7 +13020,7 @@
         <v>70</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D32">
         <v>59</v>
@@ -13044,7 +13044,7 @@
         <v>22</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D33">
         <v>76</v>
@@ -13068,7 +13068,7 @@
         <v>28</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D34">
         <v>84</v>
@@ -13092,7 +13092,7 @@
         <v>33</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D35">
         <v>91</v>
@@ -13116,7 +13116,7 @@
         <v>97</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D36">
         <v>9</v>
@@ -13140,7 +13140,7 @@
         <v>17</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D37">
         <v>18</v>
@@ -13164,7 +13164,7 @@
         <v>19</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D38">
         <v>24</v>
@@ -13188,7 +13188,7 @@
         <v>24</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D39">
         <v>25</v>
@@ -13212,7 +13212,7 @@
         <v>25</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D40">
         <v>27</v>
@@ -13236,7 +13236,7 @@
         <v>27</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D41">
         <v>29</v>
@@ -13260,7 +13260,7 @@
         <v>30</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D42">
         <v>32</v>
@@ -13284,7 +13284,7 @@
         <v>31</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D43">
         <v>33</v>
@@ -13308,7 +13308,7 @@
         <v>32</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D44">
         <v>39</v>
@@ -13332,7 +13332,7 @@
         <v>98</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D45">
         <v>42</v>
@@ -13356,7 +13356,7 @@
         <v>99</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D46">
         <v>47</v>
@@ -13380,7 +13380,7 @@
         <v>71</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D47">
         <v>48</v>
@@ -13404,7 +13404,7 @@
         <v>100</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D48">
         <v>55</v>
@@ -13428,7 +13428,7 @@
         <v>72</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D49">
         <v>58</v>
@@ -13452,7 +13452,7 @@
         <v>101</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D50">
         <v>60</v>
@@ -13476,7 +13476,7 @@
         <v>102</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D51">
         <v>61</v>
@@ -13500,7 +13500,7 @@
         <v>73</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D52">
         <v>64</v>
@@ -13524,7 +13524,7 @@
         <v>74</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D53">
         <v>71</v>
@@ -13548,7 +13548,7 @@
         <v>103</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D54">
         <v>73</v>
@@ -13572,7 +13572,7 @@
         <v>104</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D55">
         <v>78</v>
@@ -13596,7 +13596,7 @@
         <v>105</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D56">
         <v>79</v>
@@ -13620,7 +13620,7 @@
         <v>106</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D57">
         <v>83</v>
@@ -13644,7 +13644,7 @@
         <v>107</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D58">
         <v>87</v>
@@ -13668,7 +13668,7 @@
         <v>75</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D59">
         <v>88</v>
@@ -13692,7 +13692,7 @@
         <v>76</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D60">
         <v>92</v>
@@ -13716,7 +13716,7 @@
         <v>77</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D61">
         <v>94</v>
@@ -13740,7 +13740,7 @@
         <v>125</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E62">
         <v>4</v>
@@ -13761,7 +13761,7 @@
         <v>10</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D63">
         <v>4</v>
@@ -13785,7 +13785,7 @@
         <v>13</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D64">
         <v>13</v>
@@ -13809,7 +13809,7 @@
         <v>15</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D65">
         <v>16</v>
@@ -13833,7 +13833,7 @@
         <v>20</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D66">
         <v>17</v>
@@ -13857,7 +13857,7 @@
         <v>21</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D67">
         <v>20</v>
@@ -13881,7 +13881,7 @@
         <v>26</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D68">
         <v>28</v>
@@ -13905,7 +13905,7 @@
         <v>29</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D69">
         <v>35</v>
@@ -13929,7 +13929,7 @@
         <v>108</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D70">
         <v>36</v>
@@ -13953,7 +13953,7 @@
         <v>109</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D71">
         <v>40</v>
@@ -13977,7 +13977,7 @@
         <v>110</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D72">
         <v>45</v>
@@ -14001,7 +14001,7 @@
         <v>111</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D73">
         <v>50</v>
@@ -14025,7 +14025,7 @@
         <v>112</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D74">
         <v>56</v>
@@ -14049,7 +14049,7 @@
         <v>113</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D75">
         <v>57</v>
@@ -14073,7 +14073,7 @@
         <v>114</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D76">
         <v>62</v>
@@ -14097,7 +14097,7 @@
         <v>115</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D77">
         <v>65</v>
@@ -14121,7 +14121,7 @@
         <v>116</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D78">
         <v>67</v>
@@ -14145,7 +14145,7 @@
         <v>117</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D79">
         <v>68</v>
@@ -14169,7 +14169,7 @@
         <v>118</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D80">
         <v>69</v>
@@ -14193,7 +14193,7 @@
         <v>119</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D81">
         <v>74</v>
@@ -14217,7 +14217,7 @@
         <v>78</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D82">
         <v>82</v>
@@ -14241,7 +14241,7 @@
         <v>79</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D83">
         <v>86</v>
@@ -14265,7 +14265,7 @@
         <v>9</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D84">
         <v>15</v>
@@ -14289,7 +14289,7 @@
         <v>12</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D85">
         <v>22</v>
@@ -14313,7 +14313,7 @@
         <v>14</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D86">
         <v>30</v>
@@ -14337,7 +14337,7 @@
         <v>16</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D87">
         <v>37</v>
@@ -14361,7 +14361,7 @@
         <v>18</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D88">
         <v>43</v>
@@ -14385,7 +14385,7 @@
         <v>23</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D89">
         <v>77</v>
@@ -14409,7 +14409,7 @@
         <v>59</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D90">
         <v>89</v>
@@ -14433,7 +14433,7 @@
         <v>60</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D91">
         <v>93</v>
@@ -14457,7 +14457,7 @@
         <v>57</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D92">
         <v>1</v>
@@ -14481,7 +14481,7 @@
         <v>8</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D93">
         <v>2</v>
@@ -14505,7 +14505,7 @@
         <v>58</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D94">
         <v>3</v>
@@ -14529,7 +14529,7 @@
         <v>11</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D95">
         <v>5</v>
@@ -14553,7 +14553,7 @@
         <v>120</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D96">
         <v>6</v>
@@ -14577,7 +14577,7 @@
         <v>121</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D97">
         <v>7</v>
@@ -14601,7 +14601,7 @@
         <v>122</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D98">
         <v>8</v>
@@ -14625,7 +14625,7 @@
         <v>80</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D99">
         <v>10</v>
@@ -14649,7 +14649,7 @@
         <v>123</v>
       </c>
       <c r="C100" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D100">
         <v>11</v>
@@ -14673,7 +14673,7 @@
         <v>124</v>
       </c>
       <c r="C101" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D101">
         <v>14</v>
@@ -14697,7 +14697,7 @@
         <v>81</v>
       </c>
       <c r="C102" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D102">
         <v>19</v>
@@ -14721,7 +14721,7 @@
         <v>82</v>
       </c>
       <c r="C103" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D103">
         <v>21</v>
@@ -14742,10 +14742,10 @@
         <v>1013</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C104" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D104">
         <v>26</v>
@@ -14769,7 +14769,7 @@
         <v>83</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D105">
         <v>41</v>
@@ -14793,7 +14793,7 @@
         <v>84</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D106">
         <v>51</v>
@@ -14817,7 +14817,7 @@
         <v>85</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D107">
         <v>52</v>
